--- a/NiTiErp/wwwroot/export-files/BangLuongThang.xlsx
+++ b/NiTiErp/wwwroot/export-files/BangLuongThang.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
   <si>
     <t>vv</t>
   </si>
@@ -110,10 +110,16 @@
     <t>71483</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>4694017</t>
+    <t>47655</t>
+  </si>
+  <si>
+    <t>381240</t>
+  </si>
+  <si>
+    <t>500378</t>
+  </si>
+  <si>
+    <t>4694018</t>
   </si>
   <si>
     <t/>
@@ -132,6 +138,15 @@
   </si>
   <si>
     <t>77307</t>
+  </si>
+  <si>
+    <t>51538</t>
+  </si>
+  <si>
+    <t>412304</t>
+  </si>
+  <si>
+    <t>541149</t>
   </si>
   <si>
     <t>5076493</t>
@@ -1122,24 +1137,24 @@
         <v>28</v>
       </c>
       <c r="L12" s="50" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="M12" s="50" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="N12" s="51" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="O12" s="52" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="13" ht="18" customHeight="1">
       <c r="B13" s="47" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C13" s="48" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D13" s="48" t="s">
         <v>22</v>
@@ -1148,34 +1163,34 @@
         <v>23</v>
       </c>
       <c r="F13" s="50" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G13" s="50" t="s">
         <v>25</v>
       </c>
       <c r="H13" s="50" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="I13" s="50" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="J13" s="50" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="K13" s="50" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="L13" s="50" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="M13" s="50" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="N13" s="51" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="O13" s="52" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="14" ht="9" s="6" customFormat="1">
@@ -1228,7 +1243,7 @@
       <c r="B17" s="15"/>
       <c r="E17" s="5"/>
       <c r="L17" s="29" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="M17" s="29"/>
       <c r="N17" s="29"/>
@@ -1239,7 +1254,7 @@
       <c r="B18" s="15"/>
       <c r="E18" s="5"/>
       <c r="L18" s="29" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="M18" s="29"/>
       <c r="N18" s="29"/>
